--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fzd3</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H2">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I2">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J2">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.173174</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N2">
-        <v>0.519522</v>
+        <v>1.09297</v>
       </c>
       <c r="O2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P2">
-        <v>0.0473074116693291</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q2">
-        <v>0.03712994871666667</v>
+        <v>0.26263959803</v>
       </c>
       <c r="R2">
-        <v>0.33416953845</v>
+        <v>2.36375638227</v>
       </c>
       <c r="S2">
-        <v>0.0004073805299848271</v>
+        <v>0.00260409627200083</v>
       </c>
       <c r="T2">
-        <v>0.0004073805299848271</v>
+        <v>0.00260409627200083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H3">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I3">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J3">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>2.642808</v>
       </c>
       <c r="O3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P3">
-        <v>0.2406527654632456</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q3">
-        <v>0.1888800195333334</v>
+        <v>0.635064119592</v>
       </c>
       <c r="R3">
-        <v>1.6999201758</v>
+        <v>5.715577076328</v>
       </c>
       <c r="S3">
-        <v>0.002072344431396824</v>
+        <v>0.006296720367817935</v>
       </c>
       <c r="T3">
-        <v>0.002072344431396824</v>
+        <v>0.006296720367817935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2144083333333333</v>
+        <v>0.720897</v>
       </c>
       <c r="H4">
-        <v>0.643225</v>
+        <v>2.162691</v>
       </c>
       <c r="I4">
-        <v>0.008611346839948651</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J4">
-        <v>0.008611346839948651</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.606500333333333</v>
+        <v>2.721212</v>
       </c>
       <c r="N4">
-        <v>7.819501</v>
+        <v>8.163636</v>
       </c>
       <c r="O4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="P4">
-        <v>0.7120398228674253</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="Q4">
-        <v>0.5588553923027778</v>
+        <v>1.961713567164</v>
       </c>
       <c r="R4">
-        <v>5.029698530725001</v>
+        <v>17.655422104476</v>
       </c>
       <c r="S4">
-        <v>0.006131621878567</v>
+        <v>0.01945057419103156</v>
       </c>
       <c r="T4">
-        <v>0.006131621878567</v>
+        <v>0.01945057419103156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.971258</v>
+        <v>0.720897</v>
       </c>
       <c r="H5">
-        <v>71.91377399999999</v>
+        <v>2.162691</v>
       </c>
       <c r="I5">
-        <v>0.9627648963950115</v>
+        <v>0.0284720950782092</v>
       </c>
       <c r="J5">
-        <v>0.9627648963950115</v>
+        <v>0.02847209507820921</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.173174</v>
+        <v>0.016887</v>
       </c>
       <c r="N5">
-        <v>0.519522</v>
+        <v>0.050661</v>
       </c>
       <c r="O5">
-        <v>0.0473074116693291</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="P5">
-        <v>0.0473074116693291</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="Q5">
-        <v>4.151198632892</v>
+        <v>0.012173787639</v>
       </c>
       <c r="R5">
-        <v>37.360787696028</v>
+        <v>0.109564088751</v>
       </c>
       <c r="S5">
-        <v>0.04554591529453779</v>
+        <v>0.000120704247358879</v>
       </c>
       <c r="T5">
-        <v>0.04554591529453779</v>
+        <v>0.000120704247358879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I6">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J6">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8809360000000001</v>
+        <v>0.3643233333333333</v>
       </c>
       <c r="N6">
-        <v>2.642808</v>
+        <v>1.09297</v>
       </c>
       <c r="O6">
-        <v>0.2406527654632456</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="P6">
-        <v>0.2406527654632456</v>
+        <v>0.09146135066097912</v>
       </c>
       <c r="Q6">
-        <v>21.117144137488</v>
+        <v>8.733288618753331</v>
       </c>
       <c r="R6">
-        <v>190.054297237392</v>
+        <v>78.59959756877998</v>
       </c>
       <c r="S6">
-        <v>0.2316920348083946</v>
+        <v>0.08659137656692988</v>
       </c>
       <c r="T6">
-        <v>0.2316920348083947</v>
+        <v>0.08659137656692989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>71.91377399999999</v>
       </c>
       <c r="I7">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J7">
-        <v>0.9627648963950115</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.606500333333333</v>
+        <v>0.8809360000000001</v>
       </c>
       <c r="N7">
-        <v>7.819501</v>
+        <v>2.642808</v>
       </c>
       <c r="O7">
-        <v>0.7120398228674253</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="P7">
-        <v>0.7120398228674253</v>
+        <v>0.2211540931751474</v>
       </c>
       <c r="Q7">
-        <v>62.48109196741932</v>
+        <v>21.117144137488</v>
       </c>
       <c r="R7">
-        <v>562.3298277067739</v>
+        <v>190.054297237392</v>
       </c>
       <c r="S7">
-        <v>0.685526946292079</v>
+        <v>0.2093784666752929</v>
       </c>
       <c r="T7">
-        <v>0.685526946292079</v>
+        <v>0.2093784666752929</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7126843333333334</v>
+        <v>23.971258</v>
       </c>
       <c r="H8">
-        <v>2.138053</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I8">
-        <v>0.02862375676503981</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J8">
-        <v>0.02862375676503981</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.173174</v>
+        <v>2.721212</v>
       </c>
       <c r="N8">
-        <v>0.519522</v>
+        <v>8.163636</v>
       </c>
       <c r="O8">
-        <v>0.0473074116693291</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="P8">
-        <v>0.0473074116693291</v>
+        <v>0.6831451685449673</v>
       </c>
       <c r="Q8">
-        <v>0.1234183967406667</v>
+        <v>65.23087492469598</v>
       </c>
       <c r="R8">
-        <v>1.110765570666</v>
+        <v>587.0778743222639</v>
       </c>
       <c r="S8">
-        <v>0.001354115844806482</v>
+        <v>0.646770248983362</v>
       </c>
       <c r="T8">
-        <v>0.001354115844806482</v>
+        <v>0.6467702489833621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7126843333333334</v>
+        <v>23.971258</v>
       </c>
       <c r="H9">
-        <v>2.138053</v>
+        <v>71.91377399999999</v>
       </c>
       <c r="I9">
-        <v>0.02862375676503981</v>
+        <v>0.9467537483444692</v>
       </c>
       <c r="J9">
-        <v>0.02862375676503981</v>
+        <v>0.9467537483444693</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.8809360000000001</v>
+        <v>0.016887</v>
       </c>
       <c r="N9">
-        <v>2.642808</v>
+        <v>0.050661</v>
       </c>
       <c r="O9">
-        <v>0.2406527654632456</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="P9">
-        <v>0.2406527654632456</v>
+        <v>0.004239387618906157</v>
       </c>
       <c r="Q9">
-        <v>0.6278292858693334</v>
+        <v>0.4048026338459999</v>
       </c>
       <c r="R9">
-        <v>5.650463572824001</v>
+        <v>3.643223704613999</v>
       </c>
       <c r="S9">
-        <v>0.006888386223454115</v>
+        <v>0.004013656118884538</v>
       </c>
       <c r="T9">
-        <v>0.006888386223454116</v>
+        <v>0.004013656118884539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6272673333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.881802</v>
+      </c>
+      <c r="I10">
+        <v>0.0247741565773216</v>
+      </c>
+      <c r="J10">
+        <v>0.0247741565773216</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3643233333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.09297</v>
+      </c>
+      <c r="O10">
+        <v>0.09146135066097912</v>
+      </c>
+      <c r="P10">
+        <v>0.09146135066097912</v>
+      </c>
+      <c r="Q10">
+        <v>0.2285281257711111</v>
+      </c>
+      <c r="R10">
+        <v>2.05675313194</v>
+      </c>
+      <c r="S10">
+        <v>0.002265877822048413</v>
+      </c>
+      <c r="T10">
+        <v>0.002265877822048413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7126843333333334</v>
-      </c>
-      <c r="H10">
-        <v>2.138053</v>
-      </c>
-      <c r="I10">
-        <v>0.02862375676503981</v>
-      </c>
-      <c r="J10">
-        <v>0.02862375676503981</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.606500333333333</v>
-      </c>
-      <c r="N10">
-        <v>7.819501</v>
-      </c>
-      <c r="O10">
-        <v>0.7120398228674253</v>
-      </c>
-      <c r="P10">
-        <v>0.7120398228674253</v>
-      </c>
-      <c r="Q10">
-        <v>1.857611952394778</v>
-      </c>
-      <c r="R10">
-        <v>16.718507571553</v>
-      </c>
-      <c r="S10">
-        <v>0.02038125469677922</v>
-      </c>
-      <c r="T10">
-        <v>0.02038125469677922</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6272673333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.881802</v>
+      </c>
+      <c r="I11">
+        <v>0.0247741565773216</v>
+      </c>
+      <c r="J11">
+        <v>0.0247741565773216</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8809360000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.642808</v>
+      </c>
+      <c r="O11">
+        <v>0.2211540931751474</v>
+      </c>
+      <c r="P11">
+        <v>0.2211540931751474</v>
+      </c>
+      <c r="Q11">
+        <v>0.5525823755573334</v>
+      </c>
+      <c r="R11">
+        <v>4.973241380016</v>
+      </c>
+      <c r="S11">
+        <v>0.005478906132036673</v>
+      </c>
+      <c r="T11">
+        <v>0.005478906132036674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6272673333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.881802</v>
+      </c>
+      <c r="I12">
+        <v>0.0247741565773216</v>
+      </c>
+      <c r="J12">
+        <v>0.0247741565773216</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.721212</v>
+      </c>
+      <c r="N12">
+        <v>8.163636</v>
+      </c>
+      <c r="O12">
+        <v>0.6831451685449673</v>
+      </c>
+      <c r="P12">
+        <v>0.6831451685449673</v>
+      </c>
+      <c r="Q12">
+        <v>1.706927394674667</v>
+      </c>
+      <c r="R12">
+        <v>15.362346552072</v>
+      </c>
+      <c r="S12">
+        <v>0.01692434537057377</v>
+      </c>
+      <c r="T12">
+        <v>0.01692434537057378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6272673333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.881802</v>
+      </c>
+      <c r="I13">
+        <v>0.0247741565773216</v>
+      </c>
+      <c r="J13">
+        <v>0.0247741565773216</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.016887</v>
+      </c>
+      <c r="N13">
+        <v>0.050661</v>
+      </c>
+      <c r="O13">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="P13">
+        <v>0.004239387618906157</v>
+      </c>
+      <c r="Q13">
+        <v>0.010592663458</v>
+      </c>
+      <c r="R13">
+        <v>0.095333971122</v>
+      </c>
+      <c r="S13">
+        <v>0.0001050272526627397</v>
+      </c>
+      <c r="T13">
+        <v>0.0001050272526627397</v>
       </c>
     </row>
   </sheetData>
